--- a/devcom-rage-bait/data/rage-bait-data.xlsx
+++ b/devcom-rage-bait/data/rage-bait-data.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viser\OneDrive\Dokumen\Github repository\data-consultation-2026\devcom-rage-bait\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Github-repository\data-consultation-2026\devcom-rage-bait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DFF4BC-5936-4A9C-BF02-9FBFAA3518C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B5F45-C971-4BEF-B531-7BF2E0D3ECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="5" r:id="rId1"/>
     <sheet name="demographics" sheetId="4" r:id="rId2"/>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId3"/>
-    <sheet name="demo" sheetId="3" r:id="rId4"/>
+    <sheet name="likert_description" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId5"/>
+    <sheet name="demo" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8017" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8194" uniqueCount="369">
   <si>
     <t>Sex</t>
   </si>
@@ -800,6 +802,336 @@
   </si>
   <si>
     <t>social media hours</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>CRITICAL EVALUATION</t>
+  </si>
+  <si>
+    <t>1.  I can easily recognize when a post is meant to provoke anger.</t>
+  </si>
+  <si>
+    <t>2.  Bold or capitalized words often signal a rage-baiting post.</t>
+  </si>
+  <si>
+    <t>3.  Posts with aggressive images are usually intended to trigger people.</t>
+  </si>
+  <si>
+    <t>4.  Content with red text or graphics often feels like rage bait.</t>
+  </si>
+  <si>
+    <t>5.  Rage-baiting content includes attacks on others’ personalities.</t>
+  </si>
+  <si>
+    <t>6. I avoid replying to provocative posts to prevent conflict.</t>
+  </si>
+  <si>
+    <t>7. I ignore rage-bait content to be unaffected by it.</t>
+  </si>
+  <si>
+    <t>8. I rarely feel affected by rage-bait content.</t>
+  </si>
+  <si>
+    <t>9. I judge a provocative post based on the author’s background.</t>
+  </si>
+  <si>
+    <t>10. Other people don’t recognize that they are emotionally manipulated online.</t>
+  </si>
+  <si>
+    <t>11. People should be reminded to read more context before reacting to sensitive posts.</t>
+  </si>
+  <si>
+    <t>12. I personally believe posts that are emotional rather than factual.</t>
+  </si>
+  <si>
+    <t>13. Rage-baiting content includes attacks on others’ personalities.</t>
+  </si>
+  <si>
+    <t>14. People tend to react emotionally rather than fact-check provocative posts.</t>
+  </si>
+  <si>
+    <t>1.  I can easily recognize when a post is meant to provoke anger. 2</t>
+  </si>
+  <si>
+    <t>2.  Bold or capitalized words often signal a rage-baiting post. 2</t>
+  </si>
+  <si>
+    <t>3.  Posts with aggressive images are usually intended to trigger people. 2</t>
+  </si>
+  <si>
+    <t>4.  Content with red text or graphics often feels like rage bait. 2</t>
+  </si>
+  <si>
+    <t>19. I have regretted sharing rage-bait posts because of the negative comments I received.</t>
+  </si>
+  <si>
+    <t>20. I read comments when curious about a rage post.</t>
+  </si>
+  <si>
+    <t>21. I enjoy reading heated arguments in the comment section from people who were captured by rage posts.</t>
+  </si>
+  <si>
+    <t>22. I sometimes defend my opinion aggressively when I feel provoked online.</t>
+  </si>
+  <si>
+    <t>23. I become a rage baiter when I share a rage baiter’s post.</t>
+  </si>
+  <si>
+    <t>24. Bloggers help create and spread rage-bait posts.</t>
+  </si>
+  <si>
+    <t>25. Rage-bait content has more engagement with users than positive posts.</t>
+  </si>
+  <si>
+    <t>26. Rage-baiting includes misinformation that can be spread to vulnerable others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I rarely feel affected by rage-bait content. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. I personally believe posts that are emotional rather than factual. </t>
+  </si>
+  <si>
+    <t>3. Emotions negatively rise depending on the gravity of the rage-bait posts I see.</t>
+  </si>
+  <si>
+    <t>4. Rage-bait content makes my social media experience stressful.</t>
+  </si>
+  <si>
+    <t>5. It is easy for users to become angry without knowing the full story.</t>
+  </si>
+  <si>
+    <t>1. I usually scroll past rage-bait posts without reacting.</t>
+  </si>
+  <si>
+    <t>2. I avoid replying to provocative posts to prevent conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. I ignore rage-bait content to be unaffected by it. </t>
+  </si>
+  <si>
+    <t>1. I have reacted and shared rage-bait posts when I relate to the issue.</t>
+  </si>
+  <si>
+    <t>2. I read comments when curious about a rage post.</t>
+  </si>
+  <si>
+    <t>3. I enjoy reading heated arguments in the comment section from people stirred up by rage posts.</t>
+  </si>
+  <si>
+    <t>4. Sometimes, I defend my opinion aggressively when I feel provoked online.</t>
+  </si>
+  <si>
+    <t>5. I contribute to rage bait by sharing posts intended to provoke anger.</t>
+  </si>
+  <si>
+    <t>6. Other people use rage baiting to gain attention online.</t>
+  </si>
+  <si>
+    <t>1. I judge a provocative post based on the author’s background.</t>
+  </si>
+  <si>
+    <t>2. Other people don’t recognize that they are emotionally manipulated online.</t>
+  </si>
+  <si>
+    <t>3. We should be reminded to read more context before reacting to sensitive posts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. We should fact-check provocative posts rather than immediately react emotionally to them. </t>
+  </si>
+  <si>
+    <t>1. Rage-baiting content emotionally harms people who believe in the posts.</t>
+  </si>
+  <si>
+    <t>2. Rage-baiting posts can destroy other people’s reputations.</t>
+  </si>
+  <si>
+    <t>3. Rage-baiting can cause a toll on someone’s mental health.</t>
+  </si>
+  <si>
+    <t>4. Online spaces have become more toxic because of the spread of rage-bait.</t>
+  </si>
+  <si>
+    <t>5. People disrespect others when engaged in online discussions of specific rage posts.</t>
+  </si>
+  <si>
+    <t>6. Rage-bait posts divide rather than meet on a shared understanding.</t>
+  </si>
+  <si>
+    <t>7. Some users intentionally ruin someone’s reputation through rage-baiting.</t>
+  </si>
+  <si>
+    <t>1. Vloggers help create and spread rage-bait posts.</t>
+  </si>
+  <si>
+    <t>2. Rage-bait content has more engagement with users than positive posts.</t>
+  </si>
+  <si>
+    <t>3. Rage-bait posts spread through users’ active engagement.</t>
+  </si>
+  <si>
+    <t>4. Controversial content becomes more visible in engagement metrics.</t>
+  </si>
+  <si>
+    <t>5.  Rage-baiting content includes attacks on others’ personalities. 2</t>
+  </si>
+  <si>
+    <t>5. I contribute to rage bait by sharing posts intended to provoke anger. 2</t>
+  </si>
+  <si>
+    <t>6. Other people use rage baiting to gain attention online. 2</t>
+  </si>
+  <si>
+    <t>4. Rage-bait content makes my social media experience stressful. 2</t>
+  </si>
+  <si>
+    <t>5. It is easy for users to become angry without knowing the full story. 2</t>
+  </si>
+  <si>
+    <t>32. Controversial content becomes more visible in engagement metrics</t>
+  </si>
+  <si>
+    <t>33. I see rage-bait content as a form of entertainment only.</t>
+  </si>
+  <si>
+    <t>34. Rage-baiting contents emotionally harm people who believe in the posts.</t>
+  </si>
+  <si>
+    <t>35. Rage-baiting posts can destroy other people’s reputations.</t>
+  </si>
+  <si>
+    <t>36. Rage-baiting can cause a toll on someone’s mental health.</t>
+  </si>
+  <si>
+    <t>37. Online spaces have become more toxic because of the spread of rage-bait.</t>
+  </si>
+  <si>
+    <t>38. People disrespect others when engaged in online discussions of specific rage posts.</t>
+  </si>
+  <si>
+    <t>39. Rage-bait posts divide rather than meet on a shared understanding.</t>
+  </si>
+  <si>
+    <t>40. Some users intentionally ruin someone’s reputation through rage-baiting.</t>
+  </si>
+  <si>
+    <t>41. Social media platforms should show warning messages on heated topics.</t>
+  </si>
+  <si>
+    <t>42. Rage-baiting is not a serious issue on social media.</t>
+  </si>
+  <si>
+    <t>43. I think rage baiting is harmless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bold or capitalized words often signal a rage-baiting post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-bait content has more engagement with users than positive posts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other people don’t recognize that they are emotionally manipulated online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I personally believe posts that are emotional rather than factual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-baiting posts can destroy other people’s reputations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I avoid replying to provocative posts to prevent conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I read comments when curious about a rage post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Posts with aggressive images are usually intended to trigger people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-bait posts spread through users’ active engagement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should be reminded to read more context before reacting to sensitive posts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emotions negatively rise depending on the gravity of the rage-bait posts I see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-baiting can cause a toll on someone’s mental health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I ignore rage-bait content to be unaffected by it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I enjoy reading heated arguments in the comment section from people stirred up by rage posts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Content with red text or graphics often feels like rage bait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controversial content becomes more visible in engagement metrics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should fact-check provocative posts rather than immediately react emotionally to them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-bait content makes my social media experience stressful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Online spaces have become more toxic because of the spread of rage-bait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sometimes, I defend my opinion aggressively when I feel provoked online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rage-baiting content includes attacks on others’ personalities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is easy for users to become angry without knowing the full story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> People disrespect others when engaged in online discussions of specific rage posts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I contribute to rage bait by sharing posts intended to provoke anger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rage-bait posts divide rather than meet on a shared understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other people use rage baiting to gain attention online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some users intentionally ruin someone’s reputation through rage-baiting.</t>
+  </si>
+  <si>
+    <t>Vloggers help create and spread rage-bait posts.</t>
+  </si>
+  <si>
+    <t>I judge a provocative post based on the author’s background.</t>
+  </si>
+  <si>
+    <t>Rage-baiting content emotionally harms people who believe in the posts.</t>
+  </si>
+  <si>
+    <t>I usually scroll past rage-bait posts without reacting.</t>
+  </si>
+  <si>
+    <t>I have reacted and shared rage-bait posts when I relate to the issue.</t>
+  </si>
+  <si>
+    <t>I rarely feel affected by rage-bait content.</t>
+  </si>
+  <si>
+    <t>I can easily recognize when a post is meant to provoke anger.</t>
   </si>
 </sst>
 </file>
@@ -887,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,12 +1240,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +1250,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,13 +2128,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F748B0D-B97C-4C2F-9726-DF3017200DBC}">
   <dimension ref="A1:AJ102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +2244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2021,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2131,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2241,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2351,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2461,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2571,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2681,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2791,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2901,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3011,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3121,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3231,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3341,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3451,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3561,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3671,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3781,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3891,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4001,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4111,7 +4444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4221,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4331,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4441,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4551,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4661,7 +4994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4771,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4881,7 +5214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4991,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5101,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5211,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5321,7 +5654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5431,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5541,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5651,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5761,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5871,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5981,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6091,7 +6424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6201,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6311,7 +6644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6421,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6531,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6641,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6751,7 +7084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6861,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6971,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7081,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7191,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7301,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7411,7 +7744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7521,7 +7854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7631,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7741,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7851,7 +8184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7961,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8071,7 +8404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8181,7 +8514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8291,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8401,7 +8734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8511,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8621,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8731,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8841,7 +9174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8951,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9061,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9171,7 +9504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9281,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9391,7 +9724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9501,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9611,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9721,7 +10054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9831,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9941,7 +10274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10051,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10161,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10271,7 +10604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10381,7 +10714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10491,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10601,7 +10934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10711,7 +11044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10821,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10931,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11041,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11151,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11261,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11371,7 +11704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11481,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -11591,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11701,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11811,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11921,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12031,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12141,7 +12474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12251,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12361,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12471,7 +12804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12581,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12691,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12801,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12911,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13034,29 +13367,29 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="68.7109375" customWidth="1"/>
+    <col min="2" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -13073,7 +13406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -13090,7 +13423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -13107,7 +13440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -13124,7 +13457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -13141,7 +13474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -13158,7 +13491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -13175,7 +13508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -13192,7 +13525,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -13209,7 +13542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -13226,7 +13559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -13243,7 +13576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -13260,7 +13593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -13277,7 +13610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -13294,7 +13627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -13311,7 +13644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13328,7 +13661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -13345,7 +13678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -13362,7 +13695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -13379,7 +13712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -13396,7 +13729,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -13413,7 +13746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -13430,7 +13763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -13447,7 +13780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -13464,7 +13797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -13481,7 +13814,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -13498,7 +13831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -13515,7 +13848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -13532,7 +13865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -13549,7 +13882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -13566,7 +13899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -13583,7 +13916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -13600,7 +13933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -13617,7 +13950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -13634,7 +13967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -13651,7 +13984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -13668,7 +14001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -13685,7 +14018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -13702,7 +14035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -13719,7 +14052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -13736,7 +14069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -13753,7 +14086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -13770,7 +14103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -13787,7 +14120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -13804,7 +14137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -13821,7 +14154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -13838,7 +14171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -13855,7 +14188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -13872,7 +14205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -13889,7 +14222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -13906,7 +14239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -13923,7 +14256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -13940,7 +14273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -13957,7 +14290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -13974,7 +14307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -13991,7 +14324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -14008,7 +14341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -14025,7 +14358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -14042,7 +14375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -14059,7 +14392,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -14076,7 +14409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -14093,7 +14426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -14110,7 +14443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -14127,7 +14460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -14144,7 +14477,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -14161,7 +14494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14178,7 +14511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -14195,7 +14528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -14212,7 +14545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -14229,7 +14562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14246,7 +14579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -14263,7 +14596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -14280,7 +14613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -14297,7 +14630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -14314,7 +14647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -14331,7 +14664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -14348,7 +14681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -14365,7 +14698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -14382,7 +14715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -14399,7 +14732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -14416,7 +14749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -14433,7 +14766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -14450,7 +14783,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -14467,7 +14800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -14484,7 +14817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -14501,7 +14834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>50</v>
       </c>
@@ -14518,7 +14851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>50</v>
       </c>
@@ -14535,7 +14868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -14552,7 +14885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -14569,7 +14902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -14586,7 +14919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -14603,7 +14936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -14620,7 +14953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -14637,7 +14970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -14654,7 +14987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -14671,7 +15004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -14688,7 +15021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -14705,7 +15038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -14722,7 +15055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -14739,7 +15072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -14756,7 +15089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -14773,7 +15106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -14790,7 +15123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -14807,7 +15140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -14824,7 +15157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -14841,7 +15174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -14864,79 +15197,718 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7F026-A08E-42A2-A8B1-22AB0CB70994}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5DABD0-CE2C-4CF2-BA12-99A784FBD4F6}">
+  <dimension ref="E2:BX2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T2" t="s">
+        <v>278</v>
+      </c>
+      <c r="U2" t="s">
+        <v>279</v>
+      </c>
+      <c r="V2" t="s">
+        <v>280</v>
+      </c>
+      <c r="W2" t="s">
+        <v>281</v>
+      </c>
+      <c r="X2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>327</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>328</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>330</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>331</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>332</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>333</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AJ103"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="108" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC93" sqref="AC93"/>
+    <sheetView zoomScale="108" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="36" width="21.28515625" customWidth="1"/>
-    <col min="37" max="42" width="37.7109375" customWidth="1"/>
-    <col min="43" max="43" width="30.42578125" customWidth="1"/>
-    <col min="44" max="49" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="36" width="21.33203125" customWidth="1"/>
+    <col min="37" max="42" width="37.6640625" customWidth="1"/>
+    <col min="43" max="43" width="30.44140625" customWidth="1"/>
+    <col min="44" max="49" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="8" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="8" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="8" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="8" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-    </row>
-    <row r="2" spans="1:36" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+    </row>
+    <row r="2" spans="1:36" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -15046,7 +16018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -15156,7 +16128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -15266,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -15376,7 +16348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -15486,7 +16458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -15596,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -15706,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -15816,7 +16788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -15926,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -16036,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -16146,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -16256,7 +17228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -16366,7 +17338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -16476,7 +17448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -16586,7 +17558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -16696,7 +17668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -16806,7 +17778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -16916,7 +17888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -17026,7 +17998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -17136,7 +18108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -17246,7 +18218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -17356,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -17466,7 +18438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -17576,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -17686,7 +18658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -17796,7 +18768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -17906,7 +18878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -18016,7 +18988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -18126,7 +19098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -18236,7 +19208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -18346,7 +19318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -18456,7 +19428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -18566,7 +19538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -18676,7 +19648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -18786,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -18896,7 +19868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -19006,7 +19978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -19116,7 +20088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -19226,7 +20198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -19336,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -19446,7 +20418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -19556,7 +20528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -19666,7 +20638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -19776,7 +20748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -19886,7 +20858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -19996,7 +20968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -20106,7 +21078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -20216,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -20326,7 +21298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -20436,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -20546,7 +21518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -20656,7 +21628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -20766,7 +21738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -20876,7 +21848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -20986,7 +21958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -21096,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -21206,7 +22178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -21316,7 +22288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -21426,7 +22398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -21536,7 +22508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -21646,7 +22618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -21756,7 +22728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -21866,7 +22838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -21976,7 +22948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -22086,7 +23058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -22196,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -22306,7 +23278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -22416,7 +23388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -22526,7 +23498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -22636,7 +23608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -22746,7 +23718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -22856,7 +23828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -22966,7 +23938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -23076,7 +24048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -23186,7 +24158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -23296,7 +24268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -23406,7 +24378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -23516,7 +24488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -23626,7 +24598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -23736,7 +24708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -23846,7 +24818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -23956,7 +24928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -24066,7 +25038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -24176,7 +25148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -24286,7 +25258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -24396,7 +25368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -24506,7 +25478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -24616,7 +25588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -24726,7 +25698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -24836,7 +25808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -24946,7 +25918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -25056,7 +26028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -25166,7 +26138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -25276,7 +26248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -25386,7 +26358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -25496,7 +26468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -25606,7 +26578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -25716,7 +26688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -25826,7 +26798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -25936,7 +26908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -26046,7 +27018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -26174,20 +27146,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697C6DC-13D6-49C2-A097-28C4ABA82B15}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="36.5703125" customWidth="1"/>
+    <col min="2" max="6" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -26204,2123 +27176,2123 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="10" t="s">
         <v>64</v>
       </c>
     </row>
